--- a/templates/HFR_Submission_Template_Wide_LIMITED.xlsx
+++ b/templates/HFR_Submission_Template_Wide_LIMITED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achafetz\Documents\GitHub\Wavelength\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A978EE-E00C-470E-8D75-78782A4DB7E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41751817-743F-4432-AA2F-6137158EA490}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,29 +276,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t>PrEP_NEW</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1" tint="0.249977111117893"/>
-        <rFont val="Gill Sans MT"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-all age
- all sex</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <i/>
         <sz val="10"/>
         <color theme="1" tint="0.249977111117893"/>
@@ -527,6 +504,29 @@
   </si>
   <si>
     <t>weekly/full period acceptable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>PrEP_NEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+all age
+all sex</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25"/>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>26</v>
@@ -1787,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>28</v>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>26</v>
@@ -1807,7 +1807,7 @@
         <v>25</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>28</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>26</v>
@@ -1827,7 +1827,7 @@
         <v>25</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>28</v>
@@ -1835,10 +1835,10 @@
     </row>
     <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>26</v>
@@ -1847,7 +1847,7 @@
         <v>25</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>28</v>
@@ -1855,10 +1855,10 @@
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>26</v>
@@ -1867,7 +1867,7 @@
         <v>25</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>28</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B35" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>27</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>34</v>
@@ -1915,10 +1915,10 @@
     </row>
     <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B37" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>34</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>34</v>
@@ -2019,7 +2019,7 @@
     <row r="102" x14ac:dyDescent="0.25"/>
     <row r="103" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bL8WkPKx6LGy4hVYI8Le+NZR5k2tb4LJ3zOU6Hd1S4V1tnNvxY7BPdijghFWG4/mAXFTVT2edXUuWM79N6jYxw==" saltValue="PurrGL2Bs0XYZV/xqefNYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hXfE5E3xUW+zJ7aqRVGDKmKgBa/7C2oWgGm9P+TkPyA3+3s4sJay/YIJYuJ14vjxHlCcLNn9VkhWdMflvYSooQ==" saltValue="P7ldkX8MSOuEpWltckNawA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN(C2)=0</formula>
@@ -2039,7 +2039,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,7 +2048,7 @@
     <col min="9" max="9" width="15.140625" style="19" customWidth="1"/>
     <col min="10" max="16" width="14.28515625" style="19" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="19" customWidth="1"/>
-    <col min="19" max="43" width="0" style="19" hidden="1"/>
+    <col min="19" max="43" width="0" style="19" hidden="1" customWidth="1"/>
     <col min="44" max="16384" width="9.140625" style="19" hidden="1"/>
   </cols>
   <sheetData>
@@ -2087,19 +2087,19 @@
         <v>56</v>
       </c>
       <c r="L1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="N1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="38" t="s">
+      <c r="O1" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="P1" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="50" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="H2" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="J2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="K2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="L2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="M2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="N2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="O2" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="P2" s="49" t="s">
         <v>69</v>
-      </c>
-      <c r="P2" s="49" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" x14ac:dyDescent="0.35">
@@ -20117,7 +20117,7 @@
       <c r="P1000" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oo1PQjLN0EjA/aVvscz8VNILTScm+D+H18uMvdIbchN8IdeKC+W3PWfpS1X2G/M02UeI+DnTEfjHOaaaewQAvA==" saltValue="SOvWRyE4YVLkxGSuTQRkYA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="AaU/reGd/AbZlGr9YjjBZNylZROSPWps43rZCc0UenSwOvk26aPSZ9G6n63mLYkwXaPVfiWuUvRsK4ZBoKHowQ==" saltValue="ZWMo5Hclsdk3K8WDQznrog==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
